--- a/Hyperparameter optimization simulations/variance batch analysis/variance estimates.xlsx
+++ b/Hyperparameter optimization simulations/variance batch analysis/variance estimates.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Documents/GitHub/battery-parameter-spaces/Hyperparameter optimization simulations/batch8 analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peter/Documents/GitHub/battery-parameter-spaces/Hyperparameter optimization simulations/variance batch analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113F699F-C84A-C844-A2C4-9B32BEE0C45A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE2CBEA-D7C2-EC47-9ECA-DF61146B795D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="460" windowWidth="22220" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variance estimates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'variance estimates'!$E$2:$E$38</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'variance estimates'!$E$2:$E$38</definedName>
-  </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>Channel</t>
   </si>
@@ -106,6 +102,15 @@
   </si>
   <si>
     <t>Residual</t>
+  </si>
+  <si>
+    <t>Policy-specific mean</t>
+  </si>
+  <si>
+    <t>Repeats</t>
+  </si>
+  <si>
+    <t>Policy-specific median</t>
   </si>
 </sst>
 </file>
@@ -1018,19 +1023,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,10 +1065,19 @@
         <v>6</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1085,12 +1103,23 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
+        <f>AVERAGE(C2:C4)</f>
+        <v>660</v>
+      </c>
+      <c r="L2">
+        <f>MEDIAN(C2:C4)</f>
+        <v>667</v>
+      </c>
+      <c r="M2" s="2">
         <f>STDEV(C2:C4)</f>
         <v>115.65898149300814</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30</v>
       </c>
@@ -1116,16 +1145,16 @@
       <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2"/>
+      <c r="P3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="4">
+      <c r="Q3" s="4">
         <f>C39</f>
         <v>947.10810810810813</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>38</v>
       </c>
@@ -1151,16 +1180,16 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2"/>
+      <c r="P4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="6">
+      <c r="Q4" s="6">
         <f>C40</f>
         <v>164.08970849030248</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1186,19 +1215,30 @@
       <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
+        <f>AVERAGE(C5:C12)</f>
+        <v>1056.125</v>
+      </c>
+      <c r="L5">
+        <f>MEDIAN(C5:C12)</f>
+        <v>1051</v>
+      </c>
+      <c r="M5" s="2">
         <f>STDEV(C5:C12)</f>
         <v>97.172067562060832</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="9">
+      <c r="Q5" s="9">
         <f>E40</f>
         <v>105.7341219543367</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>19</v>
       </c>
@@ -1224,16 +1264,17 @@
       <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="P6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="9">
-        <f>K39</f>
+      <c r="Q6" s="9">
+        <f>M39</f>
         <v>125.89061471511674</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>27</v>
       </c>
@@ -1255,16 +1296,17 @@
       <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="P7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="10">
-        <f>SQRT(N5^2+N6^2)</f>
+      <c r="Q7" s="10">
+        <f>SQRT(Q5^2+Q6^2)</f>
         <v>164.4024069738777</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>35</v>
       </c>
@@ -1290,9 +1332,10 @@
       <c r="H8" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1318,9 +1361,10 @@
       <c r="H9" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>43</v>
       </c>
@@ -1346,9 +1390,10 @@
       <c r="H10" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>48</v>
       </c>
@@ -1370,9 +1415,10 @@
       <c r="H11" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1398,9 +1444,10 @@
       <c r="H12" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1422,12 +1469,23 @@
       <c r="H13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
+        <f>AVERAGE(C13:C20)</f>
+        <v>993.875</v>
+      </c>
+      <c r="L13">
+        <f>MEDIAN(C13:C20)</f>
+        <v>1038</v>
+      </c>
+      <c r="M13" s="2">
         <f>STDEV(C13:C20)</f>
         <v>162.37649152509732</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -1453,9 +1511,10 @@
       <c r="H14" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20</v>
       </c>
@@ -1481,9 +1540,10 @@
       <c r="H15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22</v>
       </c>
@@ -1509,9 +1569,10 @@
       <c r="H16" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -1537,9 +1598,10 @@
       <c r="H17" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>36</v>
       </c>
@@ -1565,9 +1627,10 @@
       <c r="H18" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>44</v>
       </c>
@@ -1593,9 +1656,10 @@
       <c r="H19" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1621,9 +1685,10 @@
       <c r="H20" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>13</v>
       </c>
@@ -1649,12 +1714,23 @@
       <c r="H21" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21">
+        <f>AVERAGE(C21:C28)</f>
+        <v>930.875</v>
+      </c>
+      <c r="L21">
+        <f>MEDIAN(C21:C28)</f>
+        <v>890.5</v>
+      </c>
+      <c r="M21" s="2">
         <f>STDEV(C21:C28)</f>
         <v>135.0242703051143</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N21" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1680,9 +1756,10 @@
       <c r="H22" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1708,9 +1785,10 @@
       <c r="H23" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1736,9 +1814,10 @@
       <c r="H24" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29</v>
       </c>
@@ -1764,9 +1843,10 @@
       <c r="H25" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>37</v>
       </c>
@@ -1792,9 +1872,10 @@
       <c r="H26" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>45</v>
       </c>
@@ -1820,9 +1901,10 @@
       <c r="H27" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1848,9 +1930,10 @@
       <c r="H28" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>24</v>
       </c>
@@ -1876,12 +1959,23 @@
       <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29">
+        <f>AVERAGE(C29:C30)</f>
+        <v>867</v>
+      </c>
+      <c r="L29">
+        <f>MEDIAN(C29:C30)</f>
+        <v>867</v>
+      </c>
+      <c r="M29" s="2">
         <f>STDEV(C29:C30)</f>
         <v>12.727922061357855</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>39</v>
       </c>
@@ -1907,9 +2001,10 @@
       <c r="H30" t="s">
         <v>11</v>
       </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>32</v>
       </c>
@@ -1935,12 +2030,23 @@
       <c r="H31" t="s">
         <v>12</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31">
+        <f>AVERAGE(C31:C32)</f>
+        <v>866.5</v>
+      </c>
+      <c r="L31">
+        <f>MEDIAN(C31:C32)</f>
+        <v>866.5</v>
+      </c>
+      <c r="M31" s="2">
         <f>STDEV(C31:C32)</f>
         <v>191.62593770155439</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="N31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>40</v>
       </c>
@@ -1966,9 +2072,10 @@
       <c r="H32" t="s">
         <v>12</v>
       </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10</v>
       </c>
@@ -1994,12 +2101,23 @@
       <c r="H33" t="s">
         <v>13</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33">
+        <f>AVERAGE(C33:C38)</f>
+        <v>958.16666666666663</v>
+      </c>
+      <c r="L33">
+        <f>MEDIAN(C33:C38)</f>
+        <v>918.5</v>
+      </c>
+      <c r="M33" s="2">
         <f>STDEV(C33:C38)</f>
         <v>166.64863235762425</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>18</v>
       </c>
@@ -2025,9 +2143,10 @@
       <c r="H34" t="s">
         <v>13</v>
       </c>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2054,7 +2173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2081,7 +2200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>42</v>
       </c>
@@ -2108,7 +2227,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7</v>
       </c>
@@ -2131,7 +2250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>14</v>
       </c>
@@ -2146,15 +2265,16 @@
       <c r="J39" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="2">
-        <f>AVERAGE(K2,K5,K13,K21,K29,K31,K33)</f>
+      <c r="M39" s="2">
+        <f>AVERAGE(M2,M5,M13,M21,M29,M31,M33)</f>
         <v>125.89061471511674</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N39" s="2"/>
+      <c r="O39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>17</v>
       </c>
